--- a/stockData.xlsx
+++ b/stockData.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orange" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,9 +49,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -425,16 +429,19 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>DATE :</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>02-07-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="B2" t="inlineStr">

--- a/stockData.xlsx
+++ b/stockData.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,14 +431,19 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>02-07-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>02-07-2023</t>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>05-07-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>05-07-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>05-07-2023</t>
         </is>
       </c>
     </row>
@@ -448,31 +453,53 @@
           <t>1er Janvier</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>+15.31%</t>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>+14.13%</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
         <v>11.87</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="2" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>1er Janvier</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>+15.31%</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="G2" s="2" t="n">
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>+14.13%</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="L2" s="2" t="n">
         <v>9.289999999999999</v>
       </c>
-      <c r="H2" s="2" t="n"/>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>1er Janvier</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>+14.13%</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="P2" t="n">
+        <v>9.289999999999999</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -482,27 +509,46 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>+3.10%</t>
+          <t>-1.51%</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>10.81</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>1 semaine</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>+3.10%</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>-1.51%</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>10.81</v>
       </c>
-      <c r="G3" t="n">
-        <v>10.28</v>
+      <c r="L3" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>1 semaine</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>-1.51%</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="P3" t="n">
+        <v>10.51</v>
       </c>
     </row>
     <row r="4">
@@ -513,26 +559,45 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-4.21%</t>
+          <t>-0.88%</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D4" t="inlineStr">
+        <v>10.81</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>1 mois</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-4.21%</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>-0.88%</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="L4" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>1 mois</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>-0.88%</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="P4" t="n">
         <v>10.21</v>
       </c>
     </row>
@@ -544,26 +609,45 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-2.28%</t>
+          <t>-7.57%</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>11.87</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>3 mois</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>-2.28%</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>-7.57%</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="L5" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>3 mois</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>-7.57%</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="P5" t="n">
         <v>10.21</v>
       </c>
     </row>
@@ -575,27 +659,46 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>+13.92%</t>
+          <t>+7.09%</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>11.87</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>6 mois</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>+13.92%</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="G6" t="n">
-        <v>9.289999999999999</v>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>+7.09%</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="L6" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>6 mois</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>+7.09%</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="P6" t="n">
+        <v>9.49</v>
       </c>
     </row>
     <row r="7">
@@ -606,26 +709,45 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-5.12%</t>
+          <t>-3.83%</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>11.87</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>1 an</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-5.12%</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>-3.83%</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="L7" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1 an</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>-3.83%</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="P7" t="n">
         <v>9.08</v>
       </c>
     </row>
@@ -637,26 +759,45 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>+0.96%</t>
+          <t>-3.27%</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>11.94</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>3 ans</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>+0.96%</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>-3.27%</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>11.94</v>
       </c>
-      <c r="G8" t="n">
+      <c r="L8" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>3 ans</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>-3.27%</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="P8" t="n">
         <v>8.630000000000001</v>
       </c>
     </row>
@@ -668,26 +809,45 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-24.87%</t>
+          <t>-28.72%</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>15.38</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>5 ans</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>-24.87%</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>-28.72%</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>15.38</v>
       </c>
-      <c r="G9" t="n">
+      <c r="L9" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>5 ans</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>-28.72%</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>15.38</v>
+      </c>
+      <c r="P9" t="n">
         <v>8.630000000000001</v>
       </c>
     </row>
@@ -699,27 +859,46 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>+47.61%</t>
+          <t>+46.81%</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>16.98</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>10 ans</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>+47.61%</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>+46.81%</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>16.98</v>
       </c>
-      <c r="G10" t="n">
-        <v>7.03</v>
+      <c r="L10" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>10 ans</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>+46.81%</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>16.98</v>
+      </c>
+      <c r="P10" t="n">
+        <v>7.1</v>
       </c>
     </row>
     <row r="11">
@@ -728,18 +907,29 @@
           <t>MM20</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>MM20</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="L11" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>MM20</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v/>
       </c>
-      <c r="F11" t="n">
+      <c r="O11" t="n">
         <v/>
       </c>
-      <c r="G11" t="n">
+      <c r="P11" t="n">
         <v>10.46</v>
       </c>
     </row>
@@ -749,19 +939,30 @@
           <t>MM50</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="n">
+        <v>11.02</v>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>MM50</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="L12" t="n">
+        <v>11.02</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>MM50</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v/>
       </c>
-      <c r="F12" t="n">
+      <c r="O12" t="n">
         <v/>
       </c>
-      <c r="G12" t="n">
-        <v>11.07</v>
+      <c r="P12" t="n">
+        <v>11.02</v>
       </c>
     </row>
     <row r="13">
@@ -770,19 +971,30 @@
           <t>MM100</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>MM100</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="L13" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>MM100</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v/>
       </c>
-      <c r="F13" t="n">
+      <c r="O13" t="n">
         <v/>
       </c>
-      <c r="G13" t="n">
-        <v>10.95</v>
+      <c r="P13" t="n">
+        <v>10.98</v>
       </c>
     </row>
     <row r="14">
@@ -791,26 +1003,38 @@
           <t>RSI14</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" t="n">
+        <v>65.53</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>RSI14</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="L14" t="n">
+        <v>65.53</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>RSI14</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v/>
       </c>
-      <c r="F14" t="n">
+      <c r="O14" t="n">
         <v/>
       </c>
-      <c r="G14" t="n">
-        <v>56.6</v>
+      <c r="P14" t="n">
+        <v>65.53</v>
       </c>
     </row>
     <row r="15"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:H1"/>
+  <mergeCells count="3">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stockData.xlsx
+++ b/stockData.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,11 +441,6 @@
           <t>05-07-2023</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>05-07-2023</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -464,42 +459,23 @@
       <c r="D2" s="2" t="n">
         <v>9.289999999999999</v>
       </c>
-      <c r="E2" s="2" t="n"/>
-      <c r="F2" s="2" t="n"/>
-      <c r="G2" s="2" t="n"/>
-      <c r="H2" s="2" t="n"/>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>1er Janvier</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>+14.13%</t>
         </is>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="G2" s="2" t="n">
         <v>11.87</v>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="H2" s="2" t="n">
         <v>9.289999999999999</v>
       </c>
-      <c r="M2" s="2" t="inlineStr">
-        <is>
-          <t>1er Janvier</t>
-        </is>
-      </c>
-      <c r="N2" s="2" t="inlineStr">
-        <is>
-          <t>+14.13%</t>
-        </is>
-      </c>
-      <c r="O2" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="P2" t="n">
-        <v>9.289999999999999</v>
-      </c>
+      <c r="I2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -518,36 +494,20 @@
       <c r="D3" t="n">
         <v>10.51</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1 semaine</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-1.51%</t>
         </is>
       </c>
-      <c r="K3" t="n">
+      <c r="G3" t="n">
         <v>10.81</v>
       </c>
-      <c r="L3" t="n">
-        <v>10.51</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>1 semaine</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>-1.51%</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="P3" t="n">
+      <c r="H3" t="n">
         <v>10.51</v>
       </c>
     </row>
@@ -568,36 +528,20 @@
       <c r="D4" t="n">
         <v>10.21</v>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1 mois</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-0.88%</t>
         </is>
       </c>
-      <c r="K4" t="n">
+      <c r="G4" t="n">
         <v>10.81</v>
       </c>
-      <c r="L4" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>1 mois</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>-0.88%</t>
-        </is>
-      </c>
-      <c r="O4" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="P4" t="n">
+      <c r="H4" t="n">
         <v>10.21</v>
       </c>
     </row>
@@ -618,36 +562,20 @@
       <c r="D5" t="n">
         <v>10.21</v>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>3 mois</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-7.57%</t>
         </is>
       </c>
-      <c r="K5" t="n">
+      <c r="G5" t="n">
         <v>11.87</v>
       </c>
-      <c r="L5" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>3 mois</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>-7.57%</t>
-        </is>
-      </c>
-      <c r="O5" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="P5" t="n">
+      <c r="H5" t="n">
         <v>10.21</v>
       </c>
     </row>
@@ -668,36 +596,20 @@
       <c r="D6" t="n">
         <v>9.49</v>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>6 mois</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>+7.09%</t>
         </is>
       </c>
-      <c r="K6" t="n">
+      <c r="G6" t="n">
         <v>11.87</v>
       </c>
-      <c r="L6" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>6 mois</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>+7.09%</t>
-        </is>
-      </c>
-      <c r="O6" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="P6" t="n">
+      <c r="H6" t="n">
         <v>9.49</v>
       </c>
     </row>
@@ -718,36 +630,20 @@
       <c r="D7" t="n">
         <v>9.08</v>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1 an</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-3.83%</t>
         </is>
       </c>
-      <c r="K7" t="n">
+      <c r="G7" t="n">
         <v>11.87</v>
       </c>
-      <c r="L7" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>1 an</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>-3.83%</t>
-        </is>
-      </c>
-      <c r="O7" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="P7" t="n">
+      <c r="H7" t="n">
         <v>9.08</v>
       </c>
     </row>
@@ -768,36 +664,20 @@
       <c r="D8" t="n">
         <v>8.630000000000001</v>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>3 ans</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-3.27%</t>
         </is>
       </c>
-      <c r="K8" t="n">
+      <c r="G8" t="n">
         <v>11.94</v>
       </c>
-      <c r="L8" t="n">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>3 ans</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>-3.27%</t>
-        </is>
-      </c>
-      <c r="O8" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="P8" t="n">
+      <c r="H8" t="n">
         <v>8.630000000000001</v>
       </c>
     </row>
@@ -818,36 +698,20 @@
       <c r="D9" t="n">
         <v>8.630000000000001</v>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>5 ans</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-28.72%</t>
         </is>
       </c>
-      <c r="K9" t="n">
+      <c r="G9" t="n">
         <v>15.38</v>
       </c>
-      <c r="L9" t="n">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>5 ans</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>-28.72%</t>
-        </is>
-      </c>
-      <c r="O9" t="n">
-        <v>15.38</v>
-      </c>
-      <c r="P9" t="n">
+      <c r="H9" t="n">
         <v>8.630000000000001</v>
       </c>
     </row>
@@ -868,36 +732,20 @@
       <c r="D10" t="n">
         <v>7.1</v>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>10 ans</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>+46.81%</t>
         </is>
       </c>
-      <c r="K10" t="n">
+      <c r="G10" t="n">
         <v>16.98</v>
       </c>
-      <c r="L10" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>10 ans</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>+46.81%</t>
-        </is>
-      </c>
-      <c r="O10" t="n">
-        <v>16.98</v>
-      </c>
-      <c r="P10" t="n">
+      <c r="H10" t="n">
         <v>7.1</v>
       </c>
     </row>
@@ -910,26 +758,18 @@
       <c r="D11" t="n">
         <v>10.46</v>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>MM20</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>MM20</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+      <c r="F11" t="n">
         <v/>
       </c>
-      <c r="O11" t="n">
+      <c r="G11" t="n">
         <v/>
       </c>
-      <c r="P11" t="n">
+      <c r="H11" t="n">
         <v>10.46</v>
       </c>
     </row>
@@ -942,26 +782,18 @@
       <c r="D12" t="n">
         <v>11.02</v>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>MM50</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>11.02</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>MM50</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+      <c r="F12" t="n">
         <v/>
       </c>
-      <c r="O12" t="n">
+      <c r="G12" t="n">
         <v/>
       </c>
-      <c r="P12" t="n">
+      <c r="H12" t="n">
         <v>11.02</v>
       </c>
     </row>
@@ -974,26 +806,18 @@
       <c r="D13" t="n">
         <v>10.98</v>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>MM100</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>MM100</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
+      <c r="F13" t="n">
         <v/>
       </c>
-      <c r="O13" t="n">
+      <c r="G13" t="n">
         <v/>
       </c>
-      <c r="P13" t="n">
+      <c r="H13" t="n">
         <v>10.98</v>
       </c>
     </row>
@@ -1006,35 +830,26 @@
       <c r="D14" t="n">
         <v>65.53</v>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>RSI14</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>65.53</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>RSI14</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+      <c r="F14" t="n">
         <v/>
       </c>
-      <c r="O14" t="n">
+      <c r="G14" t="n">
         <v/>
       </c>
-      <c r="P14" t="n">
+      <c r="H14" t="n">
         <v>65.53</v>
       </c>
     </row>
     <row r="15"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stockData.xlsx
+++ b/stockData.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,12 +431,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>05-07-2023</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>05-07-2023</t>
         </is>
@@ -448,7 +448,7 @@
           <t>1er Janvier</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>+14.13%</t>
         </is>
@@ -464,7 +464,7 @@
           <t>1er Janvier</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>+14.13%</t>
         </is>
@@ -475,7 +475,6 @@
       <c r="H2" s="2" t="n">
         <v>9.289999999999999</v>
       </c>
-      <c r="I2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -848,8 +847,8 @@
     <row r="15"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stockData.xlsx
+++ b/stockData.xlsx
@@ -437,6 +437,11 @@
           <t>16-07-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>16-07-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -455,7 +460,22 @@
       <c r="D2" s="2" t="n">
         <v>9.289999999999999</v>
       </c>
-      <c r="E2" s="2" t="n"/>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>1er Janvier</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>+13.03%</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="H2" t="n">
+        <v>9.289999999999999</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -474,6 +494,22 @@
       <c r="D3" t="n">
         <v>10.31</v>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1 semaine</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>+1.10%</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>10.59</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10.31</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -492,6 +528,22 @@
       <c r="D4" t="n">
         <v>10.18</v>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1 mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>+1.27%</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10.18</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -510,6 +562,22 @@
       <c r="D5" t="n">
         <v>10.18</v>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3 mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-7.79%</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="H5" t="n">
+        <v>10.18</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -528,6 +596,22 @@
       <c r="D6" t="n">
         <v>9.49</v>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>6 mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>+8.14%</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9.49</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -546,6 +630,22 @@
       <c r="D7" t="n">
         <v>9.08</v>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1 an</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-0.59%</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9.08</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -564,6 +664,22 @@
       <c r="D8" t="n">
         <v>8.630000000000001</v>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>3 ans</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-3.98%</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="H8" t="n">
+        <v>8.630000000000001</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -582,6 +698,22 @@
       <c r="D9" t="n">
         <v>8.630000000000001</v>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>5 ans</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-28.00%</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>15.38</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8.630000000000001</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -600,6 +732,22 @@
       <c r="D10" t="n">
         <v>7.19</v>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10 ans</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>+41.76%</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>16.98</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7.19</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -607,15 +755,23 @@
           <t>MM20</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v/>
-      </c>
-      <c r="C11" t="n">
-        <v/>
-      </c>
       <c r="D11" t="n">
         <v>10.47</v>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MM20</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v/>
+      </c>
+      <c r="G11" t="n">
+        <v/>
+      </c>
+      <c r="H11" t="n">
+        <v>10.47</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -623,15 +779,23 @@
           <t>MM50</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v/>
-      </c>
-      <c r="C12" t="n">
-        <v/>
-      </c>
       <c r="D12" t="n">
         <v>10.84</v>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MM50</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v/>
+      </c>
+      <c r="G12" t="n">
+        <v/>
+      </c>
+      <c r="H12" t="n">
+        <v>10.84</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -639,15 +803,23 @@
           <t>MM100</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v/>
-      </c>
-      <c r="C13" t="n">
-        <v/>
-      </c>
       <c r="D13" t="n">
         <v>10.98</v>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MM100</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v/>
+      </c>
+      <c r="G13" t="n">
+        <v/>
+      </c>
+      <c r="H13" t="n">
+        <v>10.98</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -655,20 +827,29 @@
           <t>RSI14</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v/>
-      </c>
-      <c r="C14" t="n">
-        <v/>
-      </c>
       <c r="D14" t="n">
         <v>55.17</v>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>RSI14</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v/>
+      </c>
+      <c r="G14" t="n">
+        <v/>
+      </c>
+      <c r="H14" t="n">
+        <v>55.17</v>
+      </c>
     </row>
     <row r="15"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -694,6 +875,11 @@
           <t>16-07-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>16-07-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -712,7 +898,22 @@
       <c r="D2" s="2" t="n">
         <v>20.69</v>
       </c>
-      <c r="E2" s="2" t="n"/>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>1er Janvier</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>+18.62%</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>28.41</v>
+      </c>
+      <c r="H2" t="n">
+        <v>20.69</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -731,6 +932,22 @@
       <c r="D3" t="n">
         <v>25.04</v>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1 semaine</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>+5.58%</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>27.24</v>
+      </c>
+      <c r="H3" t="n">
+        <v>25.04</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -749,6 +966,22 @@
       <c r="D4" t="n">
         <v>24.65</v>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1 mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>+2.34%</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>27.81</v>
+      </c>
+      <c r="H4" t="n">
+        <v>24.65</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -767,6 +1000,22 @@
       <c r="D5" t="n">
         <v>21.43</v>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3 mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>+22.99%</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>28.07</v>
+      </c>
+      <c r="H5" t="n">
+        <v>21.43</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -785,6 +1034,22 @@
       <c r="D6" t="n">
         <v>20.69</v>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>6 mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>+4.32%</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>28.41</v>
+      </c>
+      <c r="H6" t="n">
+        <v>20.69</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -803,6 +1068,22 @@
       <c r="D7" t="n">
         <v>16.04</v>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1 an</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>+13.74%</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>28.41</v>
+      </c>
+      <c r="H7" t="n">
+        <v>16.04</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -821,6 +1102,22 @@
       <c r="D8" t="n">
         <v>16.04</v>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>3 ans</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-37.87%</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>49.34</v>
+      </c>
+      <c r="H8" t="n">
+        <v>16.04</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -839,6 +1136,22 @@
       <c r="D9" t="n">
         <v>16.04</v>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>5 ans</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-23.37%</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>49.34</v>
+      </c>
+      <c r="H9" t="n">
+        <v>16.04</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -857,6 +1170,22 @@
       <c r="D10" t="n">
         <v>16.04</v>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10 ans</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>+18.78%</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>49.34</v>
+      </c>
+      <c r="H10" t="n">
+        <v>16.04</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -864,15 +1193,23 @@
           <t>MM20</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v/>
-      </c>
-      <c r="C11" t="n">
-        <v/>
-      </c>
       <c r="D11" t="n">
         <v>26.57</v>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MM20</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v/>
+      </c>
+      <c r="G11" t="n">
+        <v/>
+      </c>
+      <c r="H11" t="n">
+        <v>26.57</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -880,15 +1217,23 @@
           <t>MM50</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v/>
-      </c>
-      <c r="C12" t="n">
-        <v/>
-      </c>
       <c r="D12" t="n">
         <v>26.46</v>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MM50</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v/>
+      </c>
+      <c r="G12" t="n">
+        <v/>
+      </c>
+      <c r="H12" t="n">
+        <v>26.46</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -896,15 +1241,23 @@
           <t>MM100</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v/>
-      </c>
-      <c r="C13" t="n">
-        <v/>
-      </c>
       <c r="D13" t="n">
         <v>25.46</v>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MM100</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v/>
+      </c>
+      <c r="G13" t="n">
+        <v/>
+      </c>
+      <c r="H13" t="n">
+        <v>25.46</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -912,20 +1265,29 @@
           <t>RSI14</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v/>
-      </c>
-      <c r="C14" t="n">
-        <v/>
-      </c>
       <c r="D14" t="n">
         <v>45.39</v>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>RSI14</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v/>
+      </c>
+      <c r="G14" t="n">
+        <v/>
+      </c>
+      <c r="H14" t="n">
+        <v>45.39</v>
+      </c>
     </row>
     <row r="15"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stockData.xlsx
+++ b/stockData.xlsx
@@ -7,8 +7,46 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orange" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alstom" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Accor" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AirFrance" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AirLiquide" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AIRBUS" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alstom" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ALTEN" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AXA" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BNP_PARIBAS" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAPGEMINI" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CARREFOUR" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DANONE" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DASSAULT AVIATION" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EDENRED" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EIFFAGE" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ENGIE" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EUROFINS SCIENTIFIC" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FNAC_DARTY" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JCDECAUX" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LOREAL" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MICHELIN" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NEXITY" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OVHCLOUD" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RENAULT" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SAFRAN" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SANOFI" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SOCIETE_GENERALE" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SODEXO" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SOPRA_STERIA" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SPIE" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="STELLANTIS" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SYNERGIE" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TF1" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="THALES" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TOTALENERGIES" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UBISOFT" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VALEO" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VEOLIA" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VINCI" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VIVENDI" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VOLTALIA" sheetId="40" state="visible" r:id="rId40"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,12 +472,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>16-07-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>16-07-2023</t>
+          <t>23-07-2023</t>
         </is>
       </c>
     </row>
@@ -451,31 +484,16 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>+13.03%</t>
+          <t>+45.44%</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>11.87</v>
+        <v>34.4</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>1er Janvier</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>+13.03%</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="H2" t="n">
-        <v>9.289999999999999</v>
-      </c>
+        <v>23.39</v>
+      </c>
+      <c r="E2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -485,30 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>+1.10%</t>
+          <t>+0.18%</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10.59</v>
+        <v>34.35</v>
       </c>
       <c r="D3" t="n">
-        <v>10.31</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1 semaine</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>+1.10%</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>10.59</v>
-      </c>
-      <c r="H3" t="n">
-        <v>10.31</v>
+        <v>33.56</v>
       </c>
     </row>
     <row r="4">
@@ -519,30 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>+1.27%</t>
+          <t>+2.75%</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10.81</v>
+        <v>34.4</v>
       </c>
       <c r="D4" t="n">
-        <v>10.18</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1 mois</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>+1.27%</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10.18</v>
+        <v>32.43</v>
       </c>
     </row>
     <row r="5">
@@ -553,30 +539,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-7.79%</t>
+          <t>+7.74%</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11.87</v>
+        <v>34.4</v>
       </c>
       <c r="D5" t="n">
-        <v>10.18</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3 mois</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-7.79%</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="H5" t="n">
-        <v>10.18</v>
+        <v>30.51</v>
       </c>
     </row>
     <row r="6">
@@ -587,30 +557,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>+8.14%</t>
+          <t>+16.54%</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11.87</v>
+        <v>34.4</v>
       </c>
       <c r="D6" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>6 mois</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>+8.14%</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="H6" t="n">
-        <v>9.49</v>
+        <v>27.89</v>
       </c>
     </row>
     <row r="7">
@@ -621,30 +575,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-0.59%</t>
+          <t>+21.37%</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11.87</v>
+        <v>34.4</v>
       </c>
       <c r="D7" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1 an</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-0.59%</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="H7" t="n">
-        <v>9.08</v>
+        <v>20.47</v>
       </c>
     </row>
     <row r="8">
@@ -655,30 +593,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-3.98%</t>
+          <t>+45.63%</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11.94</v>
+        <v>35.89</v>
       </c>
       <c r="D8" t="n">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3 ans</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-3.98%</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="H8" t="n">
-        <v>8.630000000000001</v>
+        <v>20.47</v>
       </c>
     </row>
     <row r="9">
@@ -689,31 +611,1557 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-28.00%</t>
+          <t>-23.65%</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15.38</v>
+        <v>45.08</v>
+      </c>
+      <c r="D9" t="n">
+        <v>20.15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>10 ans</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>+25.75%</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>50.36</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20.15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MM20</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v/>
+      </c>
+      <c r="C11" t="n">
+        <v/>
+      </c>
+      <c r="D11" t="n">
+        <v>33.77</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MM50</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v/>
+      </c>
+      <c r="C12" t="n">
+        <v/>
+      </c>
+      <c r="D12" t="n">
+        <v>32.83</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MM100</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v/>
+      </c>
+      <c r="C13" t="n">
+        <v/>
+      </c>
+      <c r="D13" t="n">
+        <v>31.74</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RSI14</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v/>
+      </c>
+      <c r="C14" t="n">
+        <v/>
+      </c>
+      <c r="D14" t="n">
+        <v>33.46</v>
+      </c>
+    </row>
+    <row r="15"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>23-07-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1er Janvier</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>+13.24%</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>19.19</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>15.67</v>
+      </c>
+      <c r="E2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1 semaine</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>+2.94%</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17.94</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1 mois</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>+8.95%</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17.94</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3 mois</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-3.93%</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19.14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>6 mois</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>+2.13%</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>19.19</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15.97</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1 an</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>+5.04%</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>19.19</v>
+      </c>
+      <c r="D7" t="n">
+        <v>13.85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3 ans</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>+29.51%</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>21.37</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13.04</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>5 ans</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>+35.40%</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>21.37</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.91</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>10 ans</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-17.61%</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11.91</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MM20</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v/>
+      </c>
+      <c r="C11" t="n">
+        <v/>
+      </c>
+      <c r="D11" t="n">
+        <v>17.22</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MM50</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v/>
+      </c>
+      <c r="C12" t="n">
+        <v/>
+      </c>
+      <c r="D12" t="n">
+        <v>17.1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MM100</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v/>
+      </c>
+      <c r="C13" t="n">
+        <v/>
+      </c>
+      <c r="D13" t="n">
+        <v>17.68</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RSI14</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v/>
+      </c>
+      <c r="C14" t="n">
+        <v/>
+      </c>
+      <c r="D14" t="n">
+        <v>52.52</v>
+      </c>
+    </row>
+    <row r="15"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>23-07-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1er Janvier</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>+14.93%</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>61.88</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="E2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1 semaine</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>+2.48%</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>56.83</v>
+      </c>
+      <c r="D3" t="n">
+        <v>54.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1 mois</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>+1.20%</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>57.21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>54.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3 mois</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-5.87%</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>61.88</v>
+      </c>
+      <c r="D5" t="n">
+        <v>53.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>6 mois</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>+12.46%</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>61.88</v>
+      </c>
+      <c r="D6" t="n">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1 an</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>+5.28%</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>61.88</v>
+      </c>
+      <c r="D7" t="n">
+        <v>46.75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3 ans</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-5.83%</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>46.03</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>5 ans</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-14.06%</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>82.38</v>
+      </c>
+      <c r="D9" t="n">
+        <v>46.03</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>10 ans</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>+0.78%</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>82.38</v>
+      </c>
+      <c r="D10" t="n">
+        <v>46.03</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MM20</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v/>
+      </c>
+      <c r="C11" t="n">
+        <v/>
+      </c>
+      <c r="D11" t="n">
+        <v>55.68</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MM50</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v/>
+      </c>
+      <c r="C12" t="n">
+        <v/>
+      </c>
+      <c r="D12" t="n">
+        <v>55.96</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MM100</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v/>
+      </c>
+      <c r="C13" t="n">
+        <v/>
+      </c>
+      <c r="D13" t="n">
+        <v>56.79</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RSI14</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v/>
+      </c>
+      <c r="C14" t="n">
+        <v/>
+      </c>
+      <c r="D14" t="n">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="15"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>23-07-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1er Janvier</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>+5.12%</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="E2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1 semaine</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>-9.13%</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>164.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1 mois</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-4.97%</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>164.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3 mois</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-6.57%</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>158.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>6 mois</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>+0.36%</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>150.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1 an</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>+17.69%</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>112.4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3 ans</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>+98.33%</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>67.8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>5 ans</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>+1.16%</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>10 ans</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>+87.66%</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MM20</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v/>
+      </c>
+      <c r="C11" t="n">
+        <v/>
+      </c>
+      <c r="D11" t="n">
+        <v>180.14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MM50</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v/>
+      </c>
+      <c r="C12" t="n">
+        <v/>
+      </c>
+      <c r="D12" t="n">
+        <v>173.19</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MM100</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v/>
+      </c>
+      <c r="C13" t="n">
+        <v/>
+      </c>
+      <c r="D13" t="n">
+        <v>175.16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RSI14</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v/>
+      </c>
+      <c r="C14" t="n">
+        <v/>
+      </c>
+      <c r="D14" t="n">
+        <v>29.68</v>
+      </c>
+    </row>
+    <row r="15"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>23-07-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1er Janvier</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>+14.74%</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>47.74</v>
+      </c>
+      <c r="E2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1 semaine</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>-0.98%</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>59.34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1 mois</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-2.70%</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>61.68</v>
+      </c>
+      <c r="D4" t="n">
+        <v>57.52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3 mois</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>+0.66%</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>57.44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>6 mois</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>+17.77%</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>48.56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1 an</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>+23.35%</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>44.85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3 ans</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>+35.46%</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.41</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>5 ans</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>+115.98%</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>26.58</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>10 ans</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>+170.80%</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>12.49</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MM20</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v/>
+      </c>
+      <c r="C11" t="n">
+        <v/>
+      </c>
+      <c r="D11" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MM50</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v/>
+      </c>
+      <c r="C12" t="n">
+        <v/>
+      </c>
+      <c r="D12" t="n">
+        <v>59.98</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MM100</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v/>
+      </c>
+      <c r="C13" t="n">
+        <v/>
+      </c>
+      <c r="D13" t="n">
+        <v>57.79</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RSI14</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v/>
+      </c>
+      <c r="C14" t="n">
+        <v/>
+      </c>
+      <c r="D14" t="n">
+        <v>34.99</v>
+      </c>
+    </row>
+    <row r="15"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>23-07-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1er Janvier</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>+3.81%</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>107.9</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>91.81999999999999</v>
+      </c>
+      <c r="E2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1 semaine</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>+1.30%</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>95.42</v>
+      </c>
+      <c r="D3" t="n">
+        <v>92.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1 mois</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-0.75%</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>97.14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>91.81999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3 mois</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-9.34%</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>107.9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>91.81999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>6 mois</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-2.09%</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>107.9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>91.81999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1 an</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>+9.45%</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>107.9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3 ans</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>+19.28%</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>107.9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>5 ans</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>+1.19%</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>111.75</v>
+      </c>
+      <c r="D9" t="n">
+        <v>44.65</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>10 ans</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>+136.72%</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>111.75</v>
+      </c>
+      <c r="D10" t="n">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MM20</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v/>
+      </c>
+      <c r="C11" t="n">
+        <v/>
+      </c>
+      <c r="D11" t="n">
+        <v>94.69</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MM50</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v/>
+      </c>
+      <c r="C12" t="n">
+        <v/>
+      </c>
+      <c r="D12" t="n">
+        <v>97.84</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MM100</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v/>
+      </c>
+      <c r="C13" t="n">
+        <v/>
+      </c>
+      <c r="D13" t="n">
+        <v>100.41</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RSI14</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v/>
+      </c>
+      <c r="C14" t="n">
+        <v/>
+      </c>
+      <c r="D14" t="n">
+        <v>43.11</v>
+      </c>
+    </row>
+    <row r="15"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>23-07-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1er Janvier</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>+15.49%</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="E2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1 semaine</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>+3.22%</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15.52</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1 mois</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>+8.83%</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3 mois</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>+0.94%</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>6 mois</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>+22.62%</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12.55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1 an</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>+35.44%</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.31</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3 ans</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>+37.75%</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.789999999999999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>5 ans</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>+14.11%</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>16.8</v>
       </c>
       <c r="D9" t="n">
         <v>8.630000000000001</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>5 ans</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-28.00%</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>15.38</v>
-      </c>
-      <c r="H9" t="n">
-        <v>8.630000000000001</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -723,30 +2171,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>+41.76%</t>
+          <t>-1.77%</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>16.98</v>
+        <v>21.19</v>
       </c>
       <c r="D10" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>10 ans</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>+41.76%</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>16.98</v>
-      </c>
-      <c r="H10" t="n">
-        <v>7.19</v>
+        <v>8.630000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -755,22 +2187,14 @@
           <t>MM20</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v/>
+      </c>
+      <c r="C11" t="n">
+        <v/>
+      </c>
       <c r="D11" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>MM20</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v/>
-      </c>
-      <c r="G11" t="n">
-        <v/>
-      </c>
-      <c r="H11" t="n">
-        <v>10.47</v>
+        <v>15.07</v>
       </c>
     </row>
     <row r="12">
@@ -779,22 +2203,14 @@
           <t>MM50</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v/>
+      </c>
+      <c r="C12" t="n">
+        <v/>
+      </c>
       <c r="D12" t="n">
-        <v>10.84</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>MM50</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v/>
-      </c>
-      <c r="G12" t="n">
-        <v/>
-      </c>
-      <c r="H12" t="n">
-        <v>10.84</v>
+        <v>14.57</v>
       </c>
     </row>
     <row r="13">
@@ -803,22 +2219,14 @@
           <t>MM100</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v/>
+      </c>
+      <c r="C13" t="n">
+        <v/>
+      </c>
       <c r="D13" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>MM100</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v/>
-      </c>
-      <c r="G13" t="n">
-        <v/>
-      </c>
-      <c r="H13" t="n">
-        <v>10.98</v>
+        <v>14.55</v>
       </c>
     </row>
     <row r="14">
@@ -827,29 +2235,1048 @@
           <t>RSI14</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v/>
+      </c>
+      <c r="C14" t="n">
+        <v/>
+      </c>
       <c r="D14" t="n">
-        <v>55.17</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>RSI14</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v/>
-      </c>
-      <c r="G14" t="n">
-        <v/>
-      </c>
-      <c r="H14" t="n">
-        <v>55.17</v>
+        <v>38.53</v>
       </c>
     </row>
     <row r="15"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>23-07-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1er Janvier</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>-8.89%</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>72.12</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>55.32</v>
+      </c>
+      <c r="E2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1 semaine</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>+4.02%</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>61.68</v>
+      </c>
+      <c r="D3" t="n">
+        <v>58.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1 mois</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>+4.80%</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>61.68</v>
+      </c>
+      <c r="D4" t="n">
+        <v>55.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3 mois</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>+0.16%</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>65.23999999999999</v>
+      </c>
+      <c r="D5" t="n">
+        <v>55.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>6 mois</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-5.27%</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>72.12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>55.32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1 an</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-26.47%</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>83.2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>55.32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3 ans</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>+8.87%</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>127.68</v>
+      </c>
+      <c r="D8" t="n">
+        <v>54.6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>5 ans</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>+29.94%</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>127.68</v>
+      </c>
+      <c r="D9" t="n">
+        <v>29.82</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>10 ans</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>+281.64%</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>127.68</v>
+      </c>
+      <c r="D10" t="n">
+        <v>15.76</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MM20</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v/>
+      </c>
+      <c r="C11" t="n">
+        <v/>
+      </c>
+      <c r="D11" t="n">
+        <v>58.44</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MM50</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v/>
+      </c>
+      <c r="C12" t="n">
+        <v/>
+      </c>
+      <c r="D12" t="n">
+        <v>59.6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MM100</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v/>
+      </c>
+      <c r="C13" t="n">
+        <v/>
+      </c>
+      <c r="D13" t="n">
+        <v>60.65</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RSI14</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v/>
+      </c>
+      <c r="C14" t="n">
+        <v/>
+      </c>
+      <c r="D14" t="n">
+        <v>55.48</v>
+      </c>
+    </row>
+    <row r="15"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>23-07-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1er Janvier</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>-1.28%</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>40.28</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1 semaine</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>-1.56%</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>35.34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1 mois</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>+1.67%</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>35.34</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32.86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3 mois</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>+1.31%</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="D5" t="n">
+        <v>32.26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>6 mois</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>+0.35%</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>40.28</v>
+      </c>
+      <c r="D6" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1 an</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-16.26%</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>26.98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3 ans</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-5.66%</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>26.98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>5 ans</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-57.45%</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>16.29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>10 ans</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>+87.85%</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>106.6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MM20</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v/>
+      </c>
+      <c r="C11" t="n">
+        <v/>
+      </c>
+      <c r="D11" t="n">
+        <v>34.09</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MM50</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v/>
+      </c>
+      <c r="C12" t="n">
+        <v/>
+      </c>
+      <c r="D12" t="n">
+        <v>33.92</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MM100</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v/>
+      </c>
+      <c r="C13" t="n">
+        <v/>
+      </c>
+      <c r="D13" t="n">
+        <v>34.22</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RSI14</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v/>
+      </c>
+      <c r="C14" t="n">
+        <v/>
+      </c>
+      <c r="D14" t="n">
+        <v>50.88</v>
+      </c>
+    </row>
+    <row r="15"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>23-07-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1er Janvier</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>-3.05%</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>16.61</v>
+      </c>
+      <c r="E2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1 semaine</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>-0.87%</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17.69</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1 mois</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-5.60%</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18.37</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3 mois</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-14.78%</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20.52</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>6 mois</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-19.11%</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16.61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1 an</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-1.43%</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3 ans</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>+15.46%</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11.42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>5 ans</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-39.63%</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>31.96</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>10 ans</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-26.50%</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>41</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11.42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MM20</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v/>
+      </c>
+      <c r="C11" t="n">
+        <v/>
+      </c>
+      <c r="D11" t="n">
+        <v>17.48</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MM50</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v/>
+      </c>
+      <c r="C12" t="n">
+        <v/>
+      </c>
+      <c r="D12" t="n">
+        <v>18.23</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MM100</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v/>
+      </c>
+      <c r="C13" t="n">
+        <v/>
+      </c>
+      <c r="D13" t="n">
+        <v>19.02</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RSI14</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v/>
+      </c>
+      <c r="C14" t="n">
+        <v/>
+      </c>
+      <c r="D14" t="n">
+        <v>30.22</v>
+      </c>
+    </row>
+    <row r="15"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>23-07-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1er Janvier</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>+23.25%</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>442.6</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>334.3</v>
+      </c>
+      <c r="E2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1 semaine</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>-0.68%</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>419.8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>397.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1 mois</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>+1.19%</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>428.8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>397.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3 mois</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-5.96%</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>440.05</v>
+      </c>
+      <c r="D5" t="n">
+        <v>395.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>6 mois</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>+7.35%</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>442.6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>364.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1 an</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>+16.28%</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>442.6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>300.7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3 ans</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>+43.21%</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>442.6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>269.3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>5 ans</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>+97.19%</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>442.6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>10 ans</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>+222.72%</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>442.6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>114.55</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MM20</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v/>
+      </c>
+      <c r="C11" t="n">
+        <v/>
+      </c>
+      <c r="D11" t="n">
+        <v>413.48</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MM50</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v/>
+      </c>
+      <c r="C12" t="n">
+        <v/>
+      </c>
+      <c r="D12" t="n">
+        <v>410.53</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MM100</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v/>
+      </c>
+      <c r="C13" t="n">
+        <v/>
+      </c>
+      <c r="D13" t="n">
+        <v>409.21</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RSI14</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v/>
+      </c>
+      <c r="C14" t="n">
+        <v/>
+      </c>
+      <c r="D14" t="n">
+        <v>44.73</v>
+      </c>
+    </row>
+    <row r="15"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -872,12 +3299,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>16-07-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>16-07-2023</t>
+          <t>23-07-2023</t>
         </is>
       </c>
     </row>
@@ -889,7 +3311,1395 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>+18.62%</t>
+          <t>+30.50%</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="E2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1 semaine</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>+0.91%</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1 mois</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-9.97%</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3 mois</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>+4.28%</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>6 mois</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-1.02%</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1 an</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>+28.31%</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3 ans</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-21.91%</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>5 ans</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-55.48%</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>10 ans</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-47.53%</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MM20</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v/>
+      </c>
+      <c r="C11" t="n">
+        <v/>
+      </c>
+      <c r="D11" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MM50</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v/>
+      </c>
+      <c r="C12" t="n">
+        <v/>
+      </c>
+      <c r="D12" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MM100</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v/>
+      </c>
+      <c r="C13" t="n">
+        <v/>
+      </c>
+      <c r="D13" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RSI14</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v/>
+      </c>
+      <c r="C14" t="n">
+        <v/>
+      </c>
+      <c r="D14" t="n">
+        <v>43.18</v>
+      </c>
+    </row>
+    <row r="15"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>23-07-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1er Janvier</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>+9.14%</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>30.68</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1 semaine</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>+4.23%</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28.74</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1 mois</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>+7.22%</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28.74</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3 mois</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>+0.04%</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29.76</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>6 mois</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-1.63%</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>30.68</v>
+      </c>
+      <c r="D6" t="n">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1 an</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>+0.42%</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>30.68</v>
+      </c>
+      <c r="D7" t="n">
+        <v>21.99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3 ans</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>+20.96%</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>38.93</v>
+      </c>
+      <c r="D8" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>5 ans</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>+5.53%</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>38.93</v>
+      </c>
+      <c r="D9" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>10 ans</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>+46.17%</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>38.93</v>
+      </c>
+      <c r="D10" t="n">
+        <v>16.28</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MM20</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v/>
+      </c>
+      <c r="C11" t="n">
+        <v/>
+      </c>
+      <c r="D11" t="n">
+        <v>27.17</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MM50</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v/>
+      </c>
+      <c r="C12" t="n">
+        <v/>
+      </c>
+      <c r="D12" t="n">
+        <v>27.28</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MM100</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v/>
+      </c>
+      <c r="C13" t="n">
+        <v/>
+      </c>
+      <c r="D13" t="n">
+        <v>27.92</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RSI14</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v/>
+      </c>
+      <c r="C14" t="n">
+        <v/>
+      </c>
+      <c r="D14" t="n">
+        <v>66.22</v>
+      </c>
+    </row>
+    <row r="15"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>23-07-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1er Janvier</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>+21.51%</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>167.94</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>133.34</v>
+      </c>
+      <c r="E2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1 semaine</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>+0.90%</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>161.36</v>
+      </c>
+      <c r="D3" t="n">
+        <v>157.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1 mois</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>+0.55%</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>165.38</v>
+      </c>
+      <c r="D4" t="n">
+        <v>153.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3 mois</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-1.47%</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>167.94</v>
+      </c>
+      <c r="D5" t="n">
+        <v>153.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>6 mois</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>+12.00%</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>167.94</v>
+      </c>
+      <c r="D6" t="n">
+        <v>142.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1 an</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>+24.39%</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>167.94</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.44</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3 ans</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>+26.86%</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>167.94</v>
+      </c>
+      <c r="D8" t="n">
+        <v>112.36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>5 ans</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>+80.25%</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>167.94</v>
+      </c>
+      <c r="D9" t="n">
+        <v>84.17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>10 ans</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>+144.99%</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>167.94</v>
+      </c>
+      <c r="D10" t="n">
+        <v>61.07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MM20</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v/>
+      </c>
+      <c r="C11" t="n">
+        <v/>
+      </c>
+      <c r="D11" t="n">
+        <v>159.98</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MM50</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v/>
+      </c>
+      <c r="C12" t="n">
+        <v/>
+      </c>
+      <c r="D12" t="n">
+        <v>159.73</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MM100</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v/>
+      </c>
+      <c r="C13" t="n">
+        <v/>
+      </c>
+      <c r="D13" t="n">
+        <v>157.88</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RSI14</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v/>
+      </c>
+      <c r="C14" t="n">
+        <v/>
+      </c>
+      <c r="D14" t="n">
+        <v>40.17</v>
+      </c>
+    </row>
+    <row r="15"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>23-07-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1er Janvier</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>+21.15%</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>135.42</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>111.68</v>
+      </c>
+      <c r="E2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1 semaine</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>+0.73%</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>135.42</v>
+      </c>
+      <c r="D3" t="n">
+        <v>132.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1 mois</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>+5.37%</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>135.42</v>
+      </c>
+      <c r="D4" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3 mois</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>+4.88%</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>135.42</v>
+      </c>
+      <c r="D5" t="n">
+        <v>120.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>6 mois</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>+12.82%</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>135.42</v>
+      </c>
+      <c r="D6" t="n">
+        <v>111.98</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1 an</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>+27.39%</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>135.42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>86.52</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3 ans</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>+100.42%</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>135.42</v>
+      </c>
+      <c r="D8" t="n">
+        <v>57.87</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>5 ans</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>+27.58%</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>139.4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>48.12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>10 ans</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>+215.95%</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>139.4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>39.64</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MM20</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v/>
+      </c>
+      <c r="C11" t="n">
+        <v/>
+      </c>
+      <c r="D11" t="n">
+        <v>132.53</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MM50</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v/>
+      </c>
+      <c r="C12" t="n">
+        <v/>
+      </c>
+      <c r="D12" t="n">
+        <v>129.58</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MM100</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v/>
+      </c>
+      <c r="C13" t="n">
+        <v/>
+      </c>
+      <c r="D13" t="n">
+        <v>126.43</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RSI14</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v/>
+      </c>
+      <c r="C14" t="n">
+        <v/>
+      </c>
+      <c r="D14" t="n">
+        <v>32.72</v>
+      </c>
+    </row>
+    <row r="15"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>23-07-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1er Janvier</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>+19.98%</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -898,22 +4708,7 @@
       <c r="D2" s="2" t="n">
         <v>20.69</v>
       </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>1er Janvier</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>+18.62%</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>28.41</v>
-      </c>
-      <c r="H2" t="n">
-        <v>20.69</v>
-      </c>
+      <c r="E2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -923,30 +4718,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>+5.58%</t>
+          <t>+2.36%</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27.24</v>
+        <v>27.45</v>
       </c>
       <c r="D3" t="n">
-        <v>25.04</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1 semaine</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>+5.58%</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>27.24</v>
-      </c>
-      <c r="H3" t="n">
-        <v>25.04</v>
+        <v>26.54</v>
       </c>
     </row>
     <row r="4">
@@ -957,7 +4736,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>+2.34%</t>
+          <t>+2.62%</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -966,22 +4745,6 @@
       <c r="D4" t="n">
         <v>24.65</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1 mois</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>+2.34%</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>27.81</v>
-      </c>
-      <c r="H4" t="n">
-        <v>24.65</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -991,30 +4754,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>+22.99%</t>
+          <t>+26.35%</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>28.07</v>
       </c>
       <c r="D5" t="n">
-        <v>21.43</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3 mois</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>+22.99%</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>28.07</v>
-      </c>
-      <c r="H5" t="n">
-        <v>21.43</v>
+        <v>21.48</v>
       </c>
     </row>
     <row r="6">
@@ -1025,7 +4772,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>+4.32%</t>
+          <t>+3.01%</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -1034,22 +4781,6 @@
       <c r="D6" t="n">
         <v>20.69</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>6 mois</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>+4.32%</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>28.41</v>
-      </c>
-      <c r="H6" t="n">
-        <v>20.69</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1059,7 +4790,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>+13.74%</t>
+          <t>+19.77%</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -1068,22 +4799,6 @@
       <c r="D7" t="n">
         <v>16.04</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1 an</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>+13.74%</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>28.41</v>
-      </c>
-      <c r="H7" t="n">
-        <v>16.04</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1093,7 +4808,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-37.87%</t>
+          <t>-39.70%</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -1102,22 +4817,6 @@
       <c r="D8" t="n">
         <v>16.04</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3 ans</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-37.87%</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>49.34</v>
-      </c>
-      <c r="H8" t="n">
-        <v>16.04</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1127,7 +4826,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-23.37%</t>
+          <t>-22.27%</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -1136,22 +4835,6 @@
       <c r="D9" t="n">
         <v>16.04</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>5 ans</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-23.37%</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>49.34</v>
-      </c>
-      <c r="H9" t="n">
-        <v>16.04</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1161,7 +4844,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>+18.78%</t>
+          <t>+15.36%</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1170,22 +4853,6 @@
       <c r="D10" t="n">
         <v>16.04</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>10 ans</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>+18.78%</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>49.34</v>
-      </c>
-      <c r="H10" t="n">
-        <v>16.04</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1193,22 +4860,14 @@
           <t>MM20</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v/>
+      </c>
+      <c r="C11" t="n">
+        <v/>
+      </c>
       <c r="D11" t="n">
-        <v>26.57</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>MM20</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v/>
-      </c>
-      <c r="G11" t="n">
-        <v/>
-      </c>
-      <c r="H11" t="n">
-        <v>26.57</v>
+        <v>26.72</v>
       </c>
     </row>
     <row r="12">
@@ -1217,22 +4876,14 @@
           <t>MM50</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v/>
+      </c>
+      <c r="C12" t="n">
+        <v/>
+      </c>
       <c r="D12" t="n">
-        <v>26.46</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>MM50</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v/>
-      </c>
-      <c r="G12" t="n">
-        <v/>
-      </c>
-      <c r="H12" t="n">
-        <v>26.46</v>
+        <v>26.75</v>
       </c>
     </row>
     <row r="13">
@@ -1241,22 +4892,14 @@
           <t>MM100</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v/>
+      </c>
+      <c r="C13" t="n">
+        <v/>
+      </c>
       <c r="D13" t="n">
-        <v>25.46</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>MM100</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v/>
-      </c>
-      <c r="G13" t="n">
-        <v/>
-      </c>
-      <c r="H13" t="n">
-        <v>25.46</v>
+        <v>25.45</v>
       </c>
     </row>
     <row r="14">
@@ -1265,29 +4908,1048 @@
           <t>RSI14</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v/>
+      </c>
+      <c r="C14" t="n">
+        <v/>
+      </c>
       <c r="D14" t="n">
-        <v>45.39</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>RSI14</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v/>
-      </c>
-      <c r="G14" t="n">
-        <v/>
-      </c>
-      <c r="H14" t="n">
-        <v>45.39</v>
+        <v>32.45</v>
       </c>
     </row>
     <row r="15"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>23-07-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1er Janvier</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>+20.03%</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>161.2</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="E2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1 semaine</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>+2.49%</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>142.8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>135.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1 mois</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-1.06%</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>145.3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>133.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3 mois</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-5.14%</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>161.2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>133.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>6 mois</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>+2.56%</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>161.2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>133.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1 an</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>+12.52%</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>161.2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3 ans</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>+104.08%</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>163.3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>63.45</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>5 ans</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>+64.07%</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>163.3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>10 ans</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>+401.79%</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>163.3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>27.81</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MM20</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v/>
+      </c>
+      <c r="C11" t="n">
+        <v/>
+      </c>
+      <c r="D11" t="n">
+        <v>139.21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MM50</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v/>
+      </c>
+      <c r="C12" t="n">
+        <v/>
+      </c>
+      <c r="D12" t="n">
+        <v>145.64</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MM100</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v/>
+      </c>
+      <c r="C13" t="n">
+        <v/>
+      </c>
+      <c r="D13" t="n">
+        <v>146.63</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RSI14</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v/>
+      </c>
+      <c r="C14" t="n">
+        <v/>
+      </c>
+      <c r="D14" t="n">
+        <v>45.96</v>
+      </c>
+    </row>
+    <row r="15"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>23-07-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1er Janvier</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>+6.31%</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>30.34</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="E2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1 semaine</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>+4.69%</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27.74</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1 mois</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>+5.99%</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>27.74</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3 mois</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-5.53%</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29.68</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25.21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>6 mois</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-1.21%</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>30.34</v>
+      </c>
+      <c r="D6" t="n">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1 an</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>+30.60%</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>30.34</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20.98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3 ans</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>+51.37%</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>30.34</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13.34</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>5 ans</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>+33.30%</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>30.34</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.84</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>10 ans</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>+65.67%</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>30.34</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11.84</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MM20</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v/>
+      </c>
+      <c r="C11" t="n">
+        <v/>
+      </c>
+      <c r="D11" t="n">
+        <v>26.58</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MM50</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v/>
+      </c>
+      <c r="C12" t="n">
+        <v/>
+      </c>
+      <c r="D12" t="n">
+        <v>26.79</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MM100</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v/>
+      </c>
+      <c r="C13" t="n">
+        <v/>
+      </c>
+      <c r="D13" t="n">
+        <v>27.57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RSI14</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v/>
+      </c>
+      <c r="C14" t="n">
+        <v/>
+      </c>
+      <c r="D14" t="n">
+        <v>37.94</v>
+      </c>
+    </row>
+    <row r="15"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>23-07-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1er Janvier</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>+8.94%</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>67.02</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>47.02</v>
+      </c>
+      <c r="E2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1 semaine</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>+2.29%</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>58.54</v>
+      </c>
+      <c r="D3" t="n">
+        <v>56.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1 mois</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>+4.11%</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>59.06</v>
+      </c>
+      <c r="D4" t="n">
+        <v>53.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3 mois</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-1.91%</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>60.49</v>
+      </c>
+      <c r="D5" t="n">
+        <v>53.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>6 mois</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-3.64%</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>67.02</v>
+      </c>
+      <c r="D6" t="n">
+        <v>47.02</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1 an</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>+32.40%</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>67.02</v>
+      </c>
+      <c r="D7" t="n">
+        <v>41.53</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3 ans</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>+53.47%</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>68.06999999999999</v>
+      </c>
+      <c r="D8" t="n">
+        <v>28.79</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>5 ans</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>+11.30%</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>68.06999999999999</v>
+      </c>
+      <c r="D9" t="n">
+        <v>24.51</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>10 ans</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>+26.80%</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>69.17</v>
+      </c>
+      <c r="D10" t="n">
+        <v>24.51</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MM20</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v/>
+      </c>
+      <c r="C11" t="n">
+        <v/>
+      </c>
+      <c r="D11" t="n">
+        <v>56.89</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MM50</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v/>
+      </c>
+      <c r="C12" t="n">
+        <v/>
+      </c>
+      <c r="D12" t="n">
+        <v>56.72</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MM100</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v/>
+      </c>
+      <c r="C13" t="n">
+        <v/>
+      </c>
+      <c r="D13" t="n">
+        <v>57.01</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RSI14</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v/>
+      </c>
+      <c r="C14" t="n">
+        <v/>
+      </c>
+      <c r="D14" t="n">
+        <v>31.49</v>
+      </c>
+    </row>
+    <row r="15"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>23-07-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1er Janvier</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>+11.70%</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>189.75</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>152.25</v>
+      </c>
+      <c r="E2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1 semaine</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>179.95</v>
+      </c>
+      <c r="D3" t="n">
+        <v>173.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1 mois</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>+2.53%</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>179.95</v>
+      </c>
+      <c r="D4" t="n">
+        <v>166.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3 mois</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>+7.93%</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>180.35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>152.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>6 mois</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>+0.37%</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>189.75</v>
+      </c>
+      <c r="D6" t="n">
+        <v>152.25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1 an</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>+1.81%</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>193.6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>152.25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3 ans</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>+62.05%</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>220.2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>95.94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>5 ans</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>+51.28%</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>220.2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>51.78</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>10 ans</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>+320.77%</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>220.2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>40.48</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MM20</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v/>
+      </c>
+      <c r="C11" t="n">
+        <v/>
+      </c>
+      <c r="D11" t="n">
+        <v>173.41</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MM50</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v/>
+      </c>
+      <c r="C12" t="n">
+        <v/>
+      </c>
+      <c r="D12" t="n">
+        <v>169.54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MM100</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v/>
+      </c>
+      <c r="C13" t="n">
+        <v/>
+      </c>
+      <c r="D13" t="n">
+        <v>168.7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RSI14</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v/>
+      </c>
+      <c r="C14" t="n">
+        <v/>
+      </c>
+      <c r="D14" t="n">
+        <v>42.77</v>
+      </c>
+    </row>
+    <row r="15"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
